--- a/ListasDatos/Hernández Mendoza Delfina_2021.xlsx
+++ b/ListasDatos/Hernández Mendoza Delfina_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="843">
   <si>
     <t>NC</t>
   </si>
@@ -451,7 +451,7 @@
     <t>2721273861</t>
   </si>
   <si>
-    <t>2722193554</t>
+    <t>2721193554</t>
   </si>
   <si>
     <t>2722053183</t>
@@ -460,288 +460,315 @@
     <t>2721355154</t>
   </si>
   <si>
+    <t>2722816907</t>
+  </si>
+  <si>
+    <t>2722287435</t>
+  </si>
+  <si>
+    <t>2721177435</t>
+  </si>
+  <si>
+    <t>2722088929</t>
+  </si>
+  <si>
+    <t>2721534047</t>
+  </si>
+  <si>
+    <t>2721142904</t>
+  </si>
+  <si>
+    <t>2722604696</t>
+  </si>
+  <si>
+    <t>2722627552</t>
+  </si>
+  <si>
+    <t>2721561624</t>
+  </si>
+  <si>
+    <t>2721633698</t>
+  </si>
+  <si>
+    <t>2721285204</t>
+  </si>
+  <si>
+    <t>2721318867</t>
+  </si>
+  <si>
+    <t>2721398184</t>
+  </si>
+  <si>
+    <t>2722586828</t>
+  </si>
+  <si>
+    <t>2721853349</t>
+  </si>
+  <si>
+    <t>2721759296</t>
+  </si>
+  <si>
+    <t>2723354804</t>
+  </si>
+  <si>
+    <t>2721538302</t>
+  </si>
+  <si>
+    <t>2722174482</t>
+  </si>
+  <si>
+    <t>2721325686</t>
+  </si>
+  <si>
+    <t>2991698493</t>
+  </si>
+  <si>
+    <t>2721675673</t>
+  </si>
+  <si>
+    <t>2721170625</t>
+  </si>
+  <si>
+    <t>2722371970</t>
+  </si>
+  <si>
+    <t>2722170073</t>
+  </si>
+  <si>
+    <t>2722174781</t>
+  </si>
+  <si>
+    <t>2721734237</t>
+  </si>
+  <si>
+    <t>2281165323</t>
+  </si>
+  <si>
+    <t>ISAAC ANTONIO CASTELLANOS VALDES</t>
+  </si>
+  <si>
+    <t>JOSÉ ALBERTO CARRERA VENTURA</t>
+  </si>
+  <si>
+    <t>IRENE MINERVA GONZÁLEZ REYES</t>
+  </si>
+  <si>
+    <t>IRVING CORONA ROQUE</t>
+  </si>
+  <si>
+    <t>DANIEL CUATRA CANDELARIA</t>
+  </si>
+  <si>
+    <t>JAVIER FLORES CARRERA</t>
+  </si>
+  <si>
+    <t>OSCAR GARCIA CONTRERAS</t>
+  </si>
+  <si>
+    <t>YAZMIN SANTIAGO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>PABLO GONZALEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL HERNÁNDEZ TEPOLE</t>
+  </si>
+  <si>
+    <t>AGUSTÍN HERNÁNDEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>VALENTIN HERNÁNDEZ REYES</t>
+  </si>
+  <si>
+    <t>URBANO JIMÉNEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>MARICELA BASILIO PELLICO</t>
+  </si>
+  <si>
+    <t>MARÍA DEL CARMEN LÓPEZ NOYOLA</t>
+  </si>
+  <si>
+    <t>FRANCISCO LOPEZ MONTIEL</t>
+  </si>
+  <si>
+    <t>GERMÁN XALAMIHUA TEHUINTLE</t>
+  </si>
+  <si>
+    <t>ROSA HERRERA RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>IVAN MARCIAL CERVANTES</t>
+  </si>
+  <si>
+    <t>MARTHA MAYAHUA XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>RAFAEL MORALES VIVANCO</t>
+  </si>
+  <si>
+    <t>APOLINAR OLTEHUA XICALHUA</t>
+  </si>
+  <si>
+    <t>CESAR OLIVARES REYES</t>
+  </si>
+  <si>
+    <t>ESTHELA LIZBETH MACHORRO GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>CRESCENCIANO PACHECO XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>UBALDO CHRISTIAN RIVERA SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>PEDRO RODRIGUEZ LEYVA</t>
+  </si>
+  <si>
+    <t>REYNA CASTRO CRUZ</t>
+  </si>
+  <si>
+    <t>FERNANDO MARTINEZ TORRES</t>
+  </si>
+  <si>
+    <t>GUILLERMO RUIZ ZARAGOZA</t>
+  </si>
+  <si>
+    <t>GLORIA ADRIANA RAMON BAUTISTA</t>
+  </si>
+  <si>
+    <t>ENEDINA ROSALBA ORTEGA GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>CONSTANTINO TORRES MEZA</t>
+  </si>
+  <si>
+    <t>JULIÁN EDGAR TRUJILLO BAEZ</t>
+  </si>
+  <si>
+    <t>GERARDO VELAZQUEZ ROMAN</t>
+  </si>
+  <si>
+    <t>castellanosantonio1744@gmail.com</t>
+  </si>
+  <si>
+    <t>Josealbertocarreraventura@gmail.com</t>
+  </si>
+  <si>
+    <t>kyo1189@hotmail.com</t>
+  </si>
+  <si>
+    <t>Marthacuatra6@gmail.com</t>
+  </si>
+  <si>
+    <t>lc6209064@gmail.com</t>
+  </si>
+  <si>
+    <t>Emelinjiromijuarez@gmail.com</t>
+  </si>
+  <si>
+    <t>Yeidisan150@gmail.com</t>
+  </si>
+  <si>
+    <t>Pabis_82@hotmail.es</t>
+  </si>
+  <si>
+    <t>agustinhernandez27330@gmail.com</t>
+  </si>
+  <si>
+    <t>jesussambu0129@gmail.com</t>
+  </si>
+  <si>
+    <t>moon_985@hotmail.com</t>
+  </si>
+  <si>
+    <t>Macarmen _noyola10@outlok.com</t>
+  </si>
+  <si>
+    <t>valentinmarroquin8@gmail.com</t>
+  </si>
+  <si>
+    <t>cervantesivan548@gmail.com</t>
+  </si>
+  <si>
+    <t>eliseomaya1707@gmail.com</t>
+  </si>
+  <si>
+    <t>Apolinaroltehua50@gmail.com</t>
+  </si>
+  <si>
+    <t>maryferolivares0806@gmail.com</t>
+  </si>
+  <si>
+    <t>Glizbeth105@gmail.com</t>
+  </si>
+  <si>
+    <t>ivettemazahua@gmail.com</t>
+  </si>
+  <si>
+    <t>reynacastrocruz5186@gmail.com</t>
+  </si>
+  <si>
+    <t>fhermtzts@gmail.com</t>
+  </si>
+  <si>
+    <t>jalohu@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ari_1223@hotmail.es</t>
+  </si>
+  <si>
+    <t>Juligar437@gmail.com</t>
+  </si>
+  <si>
+    <t>gevero.cmt@gmail.com</t>
+  </si>
+  <si>
+    <t>2721198606</t>
+  </si>
+  <si>
+    <t>2721692007</t>
+  </si>
+  <si>
+    <t>2721913160</t>
+  </si>
+  <si>
+    <t>2722867518</t>
+  </si>
+  <si>
+    <t>2294934088</t>
+  </si>
+  <si>
+    <t>2721299775</t>
+  </si>
+  <si>
+    <t>16017107153</t>
+  </si>
+  <si>
+    <t>2722488237</t>
+  </si>
+  <si>
+    <t>2722843291</t>
+  </si>
+  <si>
+    <t>2721964806</t>
+  </si>
+  <si>
+    <t>2722455135</t>
+  </si>
+  <si>
+    <t>2721831445</t>
+  </si>
+  <si>
+    <t>2722832060</t>
+  </si>
+  <si>
+    <t>2721558780</t>
+  </si>
+  <si>
     <t>2722342238</t>
   </si>
   <si>
-    <t>2722287435</t>
-  </si>
-  <si>
-    <t>2721177435</t>
-  </si>
-  <si>
-    <t>2722088929</t>
-  </si>
-  <si>
-    <t>2721534047</t>
-  </si>
-  <si>
-    <t>2721142904</t>
-  </si>
-  <si>
-    <t>2722604696</t>
-  </si>
-  <si>
-    <t>2722627552</t>
-  </si>
-  <si>
-    <t>2721561624</t>
-  </si>
-  <si>
-    <t>2721633698</t>
-  </si>
-  <si>
-    <t>2721285204</t>
-  </si>
-  <si>
-    <t>2721318867</t>
-  </si>
-  <si>
-    <t>2721398184</t>
-  </si>
-  <si>
-    <t>2722586828</t>
-  </si>
-  <si>
-    <t>2721853349</t>
-  </si>
-  <si>
-    <t>2721759296</t>
-  </si>
-  <si>
-    <t>2723354804</t>
-  </si>
-  <si>
-    <t>2721538302</t>
-  </si>
-  <si>
-    <t>2722174482</t>
-  </si>
-  <si>
-    <t>2721325686</t>
-  </si>
-  <si>
-    <t>2991698493</t>
-  </si>
-  <si>
-    <t>2721675673</t>
-  </si>
-  <si>
-    <t>2721170625</t>
-  </si>
-  <si>
-    <t>2722371970</t>
-  </si>
-  <si>
-    <t>2722170073</t>
-  </si>
-  <si>
-    <t>2722174781</t>
-  </si>
-  <si>
-    <t>2721734237</t>
-  </si>
-  <si>
-    <t>2281165323</t>
-  </si>
-  <si>
-    <t>ISAAC ANTONIO CASTELLANOS VALDES</t>
-  </si>
-  <si>
-    <t>JOSÉ ALBERTO CARRERA VENTURA</t>
-  </si>
-  <si>
-    <t>IRVING CORONA ROQUE</t>
-  </si>
-  <si>
-    <t>DANIEL CUATRA CANDELARIA</t>
-  </si>
-  <si>
-    <t>JAVIER FLORES CARRERA</t>
-  </si>
-  <si>
-    <t>OSCAR GARCIA CONTRERAS</t>
-  </si>
-  <si>
-    <t>YAZMIN SANTIAGO HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>PABLO GONZALEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL HERNÁNDEZ TEPOLE</t>
-  </si>
-  <si>
-    <t>AGUSTÍN HERNÁNDEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>VALENTIN HERNÁNDEZ REYES</t>
-  </si>
-  <si>
-    <t>URBANO JIMÉNEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>JOSUE (FINADO) LIMON SANCHEZ</t>
-  </si>
-  <si>
-    <t>FRANCISCO LOPEZ MONTIEL</t>
-  </si>
-  <si>
-    <t>GERMÁN XALAMIHUA TEHUINTLE</t>
-  </si>
-  <si>
-    <t>IVAN MARCIAL CERVANTES</t>
-  </si>
-  <si>
-    <t>MARTHA MAYAHUA XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>RAFAEL MORALES VIVANCO</t>
-  </si>
-  <si>
-    <t>APOLINAR OLTEHUA XICALHUA</t>
-  </si>
-  <si>
-    <t>CESAR OLIVARES REYES</t>
-  </si>
-  <si>
-    <t>CRESCENCIANO PACHECO XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>UBALDO CHRISTIAN RIVERA SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>PEDRO RODRIGUEZ LEYVA</t>
-  </si>
-  <si>
-    <t>REYNA CASTRO CRUZ</t>
-  </si>
-  <si>
-    <t>FERNANDO MARTINEZ TORRES</t>
-  </si>
-  <si>
-    <t>GUILLERMO RUIZ ZARAGOZA</t>
-  </si>
-  <si>
-    <t>GLORIA ADRIANA RAMON BAUTISTA</t>
-  </si>
-  <si>
-    <t>ENEDINA ROSALBA ORTEGA GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>CONSTANTINO TORRES MEZA</t>
-  </si>
-  <si>
-    <t>JULIÁN EDGAR TRUJILLO BAEZ</t>
-  </si>
-  <si>
-    <t>GERARDO VELAZQUEZ ROMAN</t>
-  </si>
-  <si>
-    <t>castellanosantonio1744@gmail.com</t>
-  </si>
-  <si>
-    <t>Josealbertocarreraventura@gmail.com</t>
-  </si>
-  <si>
-    <t>kyo1189@hotmail.com</t>
-  </si>
-  <si>
-    <t>Marthacuatra6@gmail.com</t>
-  </si>
-  <si>
-    <t>lc6209064@gmail.com</t>
-  </si>
-  <si>
-    <t>Emelinjiromijuarez@gmail.com</t>
-  </si>
-  <si>
-    <t>Yeidisan150@gmail.com</t>
-  </si>
-  <si>
-    <t>Pabis_82@hotmail.es</t>
-  </si>
-  <si>
-    <t>agustinhernandez27330@gmail.com</t>
-  </si>
-  <si>
-    <t>jesussambu0129@gmail.com</t>
-  </si>
-  <si>
-    <t>moon_985@hotmail.com</t>
-  </si>
-  <si>
-    <t>LopezmontielF3gmail.com</t>
-  </si>
-  <si>
-    <t>cervantesivan548@gmail.com</t>
-  </si>
-  <si>
-    <t>eliseomaya1707@gmail.com</t>
-  </si>
-  <si>
-    <t>Apolinaroltehua50@gmail.com</t>
-  </si>
-  <si>
-    <t>maryferolivares0806@gmail.com</t>
-  </si>
-  <si>
-    <t>ivettemazahua@gmail.com</t>
-  </si>
-  <si>
-    <t>reynacastrocruz5186@gmail.com</t>
-  </si>
-  <si>
-    <t>fhermtzts@gmail.com</t>
-  </si>
-  <si>
-    <t>jalohu@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ari_1223@hotmail.es</t>
-  </si>
-  <si>
-    <t>Juligar437@gmail.com</t>
-  </si>
-  <si>
-    <t>gevero.cmt@gmail.com</t>
-  </si>
-  <si>
-    <t>2721198606</t>
-  </si>
-  <si>
-    <t>2721692007</t>
-  </si>
-  <si>
-    <t>2722867518</t>
-  </si>
-  <si>
-    <t>2294934088</t>
-  </si>
-  <si>
-    <t>2721299775</t>
-  </si>
-  <si>
-    <t>16017107153</t>
-  </si>
-  <si>
-    <t>2722488237</t>
-  </si>
-  <si>
-    <t>2722843291</t>
-  </si>
-  <si>
-    <t>2721964806</t>
-  </si>
-  <si>
-    <t>2722455135</t>
-  </si>
-  <si>
-    <t>2722832060</t>
-  </si>
-  <si>
-    <t>2721558780</t>
-  </si>
-  <si>
     <t>2721285853</t>
   </si>
   <si>
@@ -754,6 +781,9 @@
     <t>2721045001</t>
   </si>
   <si>
+    <t>2722129324</t>
+  </si>
+  <si>
     <t>2721646081</t>
   </si>
   <si>
@@ -1027,6 +1057,9 @@
     <t>itzelcast2020@gmail.com</t>
   </si>
   <si>
+    <t>shadaijuarez@gmail.com</t>
+  </si>
+  <si>
     <t>jefe86748@gmail.com</t>
   </si>
   <si>
@@ -1054,6 +1087,9 @@
     <t>ir673820@gmail.com</t>
   </si>
   <si>
+    <t>susanaromerozac@outlook.com</t>
+  </si>
+  <si>
     <t>alejandrasanchezhuerta1@gmail.com</t>
   </si>
   <si>
@@ -1114,6 +1150,9 @@
     <t>2722974524</t>
   </si>
   <si>
+    <t>2722078578</t>
+  </si>
+  <si>
     <t>2721058065</t>
   </si>
   <si>
@@ -1141,6 +1180,9 @@
     <t>2722361219</t>
   </si>
   <si>
+    <t>2721941069</t>
+  </si>
+  <si>
     <t>2722057137</t>
   </si>
   <si>
@@ -1186,7 +1228,7 @@
     <t>2727247557</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722433108</t>
@@ -1213,7 +1255,7 @@
     <t>ARIANA CRUZ DURÁN</t>
   </si>
   <si>
-    <t>JESÚS ESTEVEZ ALCÁNTARA ESTEVEZ MORENO</t>
+    <t>JESÚS ESTEVEZ ALCANTARA</t>
   </si>
   <si>
     <t>VERÓNICA ESPERÓN MORA</t>
@@ -1237,6 +1279,9 @@
     <t>BERTHA CASTILLO SANCHEZ</t>
   </si>
   <si>
+    <t>MARÍA GUADALUPE LILY JUAREZ TLATELPA</t>
+  </si>
+  <si>
     <t>OMAR DE LA LUZ GARCIA</t>
   </si>
   <si>
@@ -1315,6 +1360,9 @@
     <t>Berthacastillo3702@gmail.com</t>
   </si>
   <si>
+    <t>guadalupejuarez1525@gmail.com</t>
+  </si>
+  <si>
     <t>El13333@@mail.com</t>
   </si>
   <si>
@@ -1366,6 +1414,9 @@
     <t>2721922184</t>
   </si>
   <si>
+    <t>2722602078</t>
+  </si>
+  <si>
     <t>2722834883</t>
   </si>
   <si>
@@ -1660,7 +1711,7 @@
     <t>2726892718</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2727211100</t>
@@ -1744,7 +1795,10 @@
     <t>HUGO BÁEZ ROSAS</t>
   </si>
   <si>
-    <t>maberamirezramirez@gmail.com</t>
+    <t>Marchate1986@gmail.com</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
   </si>
   <si>
     <t>luis.kaztello@gmail.com</t>
@@ -1789,6 +1843,9 @@
     <t>banda4203@hotmail.com</t>
   </si>
   <si>
+    <t>oficialsanchezmz@gmail.com</t>
+  </si>
+  <si>
     <t>fernandagonzales2267@gmail.com</t>
   </si>
   <si>
@@ -2113,7 +2170,7 @@
     <t>2721319968</t>
   </si>
   <si>
-    <t>2722287536</t>
+    <t>2721279750</t>
   </si>
   <si>
     <t>2722466200</t>
@@ -2245,6 +2302,9 @@
     <t>JOSE ADRIAN ALCÁNTARA CHICO</t>
   </si>
   <si>
+    <t>MIRIAM GONZÁLEZ AGUILAR</t>
+  </si>
+  <si>
     <t>OSVALDO CASTILLO GARCIA</t>
   </si>
   <si>
@@ -2293,6 +2353,9 @@
     <t>HILDA ZAPATA ARROYO</t>
   </si>
   <si>
+    <t>AIDA MÉNDOZA GONZÁLEZ</t>
+  </si>
+  <si>
     <t>VÍCTOR MIXCOHUA CASTILLO</t>
   </si>
   <si>
@@ -2332,6 +2395,12 @@
     <t>CESAR SANTILLANA LOPEZ</t>
   </si>
   <si>
+    <t>JOAQUÍN TREJO MEJÍA</t>
+  </si>
+  <si>
+    <t>miriamgonzi84@gmail.com</t>
+  </si>
+  <si>
     <t>evangelio0.1bgc@gmail.com</t>
   </si>
   <si>
@@ -2405,6 +2474,9 @@
   </si>
   <si>
     <t>2721634883</t>
+  </si>
+  <si>
+    <t>2721322441</t>
   </si>
   <si>
     <t>2721437274</t>
@@ -2904,10 +2976,10 @@
         <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2936,10 +3008,10 @@
         <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2961,6 +3033,15 @@
       <c r="F4" t="s">
         <v>132</v>
       </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -2985,13 +3066,13 @@
         <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3017,13 +3098,13 @@
         <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3049,13 +3130,13 @@
         <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3081,13 +3162,13 @@
         <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3113,10 +3194,10 @@
         <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
         <v>137</v>
@@ -3145,13 +3226,13 @@
         <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3177,7 +3258,7 @@
         <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
         <v>139</v>
@@ -3203,13 +3284,13 @@
         <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3235,10 +3316,10 @@
         <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J13" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3264,13 +3345,13 @@
         <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J14" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3296,10 +3377,10 @@
         <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J15" t="s">
         <v>169</v>
@@ -3324,6 +3405,15 @@
       <c r="F16" t="s">
         <v>144</v>
       </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
@@ -3348,13 +3438,10 @@
         <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3380,10 +3467,10 @@
         <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3405,6 +3492,15 @@
       <c r="F19" t="s">
         <v>147</v>
       </c>
+      <c r="H19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -3426,10 +3522,10 @@
         <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
         <v>148</v>
@@ -3458,13 +3554,13 @@
         <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3490,10 +3586,10 @@
         <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3519,13 +3615,13 @@
         <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3551,13 +3647,13 @@
         <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3579,6 +3675,15 @@
       <c r="F25" t="s">
         <v>153</v>
       </c>
+      <c r="H25" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -3603,13 +3708,13 @@
         <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3635,10 +3740,10 @@
         <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3664,13 +3769,13 @@
         <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
         <v>121</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3696,10 +3801,10 @@
         <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
         <v>173</v>
@@ -3728,13 +3833,13 @@
         <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3760,10 +3865,10 @@
         <v>174</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J31" t="s">
         <v>174</v>
@@ -3789,13 +3894,13 @@
         <v>160</v>
       </c>
       <c r="H32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3821,13 +3926,13 @@
         <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
         <v>126</v>
       </c>
       <c r="J33" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3853,10 +3958,10 @@
         <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3879,13 +3984,13 @@
         <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3911,13 +4016,13 @@
         <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3979,31 +4084,31 @@
         <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="J2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4011,25 +4116,25 @@
         <v>20330051920191</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4037,31 +4142,31 @@
         <v>20330051920192</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="H4" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="I4" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4072,28 +4177,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J5" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4101,31 +4206,31 @@
         <v>20330051920392</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G6" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="I6" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="J6" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4133,31 +4238,31 @@
         <v>20330051920194</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="H7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="I7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4165,31 +4270,31 @@
         <v>20330051920196</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" t="s">
         <v>398</v>
-      </c>
-      <c r="I8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4197,31 +4302,31 @@
         <v>20330051920197</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" t="s">
         <v>399</v>
-      </c>
-      <c r="I9" t="s">
-        <v>426</v>
-      </c>
-      <c r="J9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4232,28 +4337,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="J10" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4264,28 +4369,28 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G11" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I11" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="J11" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4293,28 +4398,28 @@
         <v>20330051920200</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H12" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I12" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="J12" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4322,31 +4427,31 @@
         <v>20330051920201</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H13" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="I13" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4357,22 +4462,22 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4380,31 +4485,31 @@
         <v>20330051920202</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G15" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H15" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="I15" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="J15" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4412,13 +4517,28 @@
         <v>20330051920203</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>315</v>
+      </c>
+      <c r="E16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" t="s">
+        <v>420</v>
+      </c>
+      <c r="I16" t="s">
+        <v>447</v>
+      </c>
+      <c r="J16" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4426,28 +4546,28 @@
         <v>20330051920204</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H17" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="I17" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="J17" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4455,31 +4575,31 @@
         <v>20330051920205</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D18" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="I18" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="J18" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4487,28 +4607,28 @@
         <v>20330051920206</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="H19" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="I19" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="J19" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4519,28 +4639,28 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F20" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H20" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J20" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4548,31 +4668,31 @@
         <v>20330051920208</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G21" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H21" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="I21" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="J21" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4580,31 +4700,31 @@
         <v>20330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E22" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F22" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="H22" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="J22" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4612,28 +4732,28 @@
         <v>20330051920210</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G23" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="I23" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4644,25 +4764,25 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E24" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F24" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G24" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="H24" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="J24" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4673,28 +4793,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G25" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H25" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="I25" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="J25" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4705,10 +4825,16 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4719,25 +4845,25 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F27" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G27" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H27" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="J27" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4751,22 +4877,22 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F28" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="G28" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H28" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="J28" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4780,19 +4906,19 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E29" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F29" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="H29" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="J29" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4803,28 +4929,28 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E30" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F30" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="H30" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="I30" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="J30" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4832,28 +4958,28 @@
         <v>20330051920218</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="H31" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="J31" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4861,31 +4987,31 @@
         <v>20330051920219</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E32" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G32" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="H32" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="I32" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="J32" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4947,31 +5073,31 @@
         <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="F2" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="I2" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="J2" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4979,28 +5105,31 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F3" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="G3" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>572</v>
+      </c>
+      <c r="I3" t="s">
+        <v>592</v>
       </c>
       <c r="J3" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5011,28 +5140,28 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="G4" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="H4" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="I4" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="J4" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5040,31 +5169,31 @@
         <v>20330051920262</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="G5" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="J5" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5072,31 +5201,31 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="F6" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="G6" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="I6" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="J6" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5107,28 +5236,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="H7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="I7" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="J7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5142,25 +5271,25 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="E8" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="F8" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="G8" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="H8" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="I8" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="J8" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5168,28 +5297,28 @@
         <v>20330051920269</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="E9" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F9" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="H9" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="I9" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="J9" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5200,28 +5329,28 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F10" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="G10" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="H10" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="I10" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="J10" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5232,25 +5361,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="F11" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="I11" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5264,22 +5393,22 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="F12" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="H12" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="I12" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="J12" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5287,28 +5416,28 @@
         <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="F13" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="G13" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H13" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="I13" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5316,31 +5445,31 @@
         <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="G14" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="I14" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="J14" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5354,22 +5483,22 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="H15" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="I15" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="J15" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5377,31 +5506,31 @@
         <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G16" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="H16" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="I16" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="J16" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5409,28 +5538,28 @@
         <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="F17" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="I17" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="J17" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5438,31 +5567,31 @@
         <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="E18" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F18" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="G18" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="I18" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="J18" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5473,28 +5602,28 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="F19" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="I19" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="J19" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5502,28 +5631,31 @@
         <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="E20" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="F20" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="G20" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>589</v>
+      </c>
+      <c r="I20" t="s">
+        <v>608</v>
       </c>
       <c r="J20" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5531,28 +5663,28 @@
         <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="F21" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="I21" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="J21" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5560,25 +5692,25 @@
         <v>19330051920425</v>
       </c>
       <c r="B22" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="E22" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="F22" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="G22" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="H22" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5640,28 +5772,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="D2" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="E2" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="F2" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="G2" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="H2" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="J2" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5669,19 +5801,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="E3" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="F3" t="s">
-        <v>698</v>
+        <v>717</v>
+      </c>
+      <c r="H3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I3" t="s">
+        <v>793</v>
+      </c>
+      <c r="J3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5689,31 +5830,31 @@
         <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="E4" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="F4" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="G4" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="H4" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="I4" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="J4" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5721,31 +5862,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="D5" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="E5" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="F5" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="G5" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="H5" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="I5" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
       <c r="J5" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5753,31 +5894,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D6" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="E6" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="H6" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="I6" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5785,31 +5926,31 @@
         <v>19330051920251</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="G7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="H7" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="I7" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="J7" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5820,25 +5961,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="D8" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="E8" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="F8" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="G8" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="H8" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="I8" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5846,28 +5987,28 @@
         <v>19330051920253</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="E9" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="F9" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="H9" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="I9" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="J9" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5878,28 +6019,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="D10" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="E10" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="F10" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="G10" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="H10" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="I10" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="J10" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5910,28 +6051,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="E11" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="F11" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="G11" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="H11" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="I11" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="J11" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5942,28 +6083,28 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="E12" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="F12" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="G12" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="H12" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="I12" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="J12" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5974,28 +6115,28 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="D13" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="E13" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="F13" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="G13" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="H13" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="I13" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="J13" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6006,28 +6147,28 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="E14" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="F14" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="G14" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="H14" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="I14" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="J14" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6038,25 +6179,25 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="D15" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="G15" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="H15" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="I15" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6067,28 +6208,28 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D16" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="E16" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="F16" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="G16" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="H16" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="I16" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
       <c r="J16" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6096,31 +6237,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="F17" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="G17" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="H17" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="I17" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="J17" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6131,28 +6272,28 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="E18" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="F18" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="G18" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="H18" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="I18" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="J18" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6160,31 +6301,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C19" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="D19" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="E19" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="F19" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="G19" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="H19" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="I19" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="J19" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6192,7 +6333,7 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -6201,10 +6342,13 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
-        <v>715</v>
+        <v>734</v>
+      </c>
+      <c r="H20" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6212,31 +6356,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="C21" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="D21" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="E21" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="G21" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="H21" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="I21" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="J21" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6244,22 +6388,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="C22" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="D22" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="E22" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="H22" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6273,25 +6417,25 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="E23" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="F23" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="G23" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="H23" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="I23" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="J23" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6299,28 +6443,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="D24" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="E24" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="F24" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="H24" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="I24" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="J24" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6331,28 +6475,28 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="E25" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="F25" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="G25" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="H25" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="I25" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="J25" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6363,28 +6507,28 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="D26" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="E26" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="F26" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="G26" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="H26" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="I26" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="J26" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6392,31 +6536,31 @@
         <v>19330051920405</v>
       </c>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D27" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="E27" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="F27" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="G27" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="H27" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="I27" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="J27" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6424,31 +6568,31 @@
         <v>19330051920406</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="E28" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="F28" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="G28" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="H28" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="I28" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="J28" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6462,22 +6606,22 @@
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="E29" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="F29" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="H29" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="I29" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="J29" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6491,25 +6635,25 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="E30" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="F30" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="G30" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="H30" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="I30" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="J30" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6523,22 +6667,22 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="E31" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="G31" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="H31" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="I31" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="J31" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6549,28 +6693,28 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="D32" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="E32" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="F32" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="G32" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="H32" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="I32" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="J32" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6578,25 +6722,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="E33" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="F33" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="H33" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="I33" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6604,19 +6748,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="D34" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="E34" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="F34" t="s">
-        <v>728</v>
+        <v>747</v>
+      </c>
+      <c r="H34" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
